--- a/data/outputs/management_altmetric/73.xlsx
+++ b/data/outputs/management_altmetric/73.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE82"/>
+  <dimension ref="A1:CF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1027,6 +1032,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1270,6 +1278,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1513,6 +1524,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1768,6 +1782,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2015,6 +2032,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2262,6 +2282,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2511,6 +2534,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2754,6 +2780,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2987,6 +3016,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3232,6 +3264,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3479,6 +3514,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3736,6 +3774,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3981,6 +4022,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4230,6 +4274,9 @@
       <c r="CE15" t="n">
         <v>2</v>
       </c>
+      <c r="CF15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4475,6 +4522,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>10.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4732,6 +4782,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4989,6 +5042,9 @@
       <c r="CE18" t="n">
         <v>1</v>
       </c>
+      <c r="CF18" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5253,6 +5309,9 @@
       </c>
       <c r="CE19" t="n">
         <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5491,6 +5550,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5728,6 +5790,9 @@
       <c r="CE21" t="n">
         <v>1</v>
       </c>
+      <c r="CF21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5969,6 +6034,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6224,6 +6292,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6484,6 +6555,9 @@
       </c>
       <c r="CE24" t="n">
         <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="25">
@@ -6728,6 +6802,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6975,6 +7052,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7222,6 +7302,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7475,6 +7558,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7736,6 +7822,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7987,6 +8076,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8246,6 +8338,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8503,6 +8598,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8748,6 +8846,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8999,6 +9100,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9251,6 +9355,9 @@
       </c>
       <c r="CE35" t="n">
         <v>0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -9483,6 +9590,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9736,6 +9846,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9977,6 +10090,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10234,6 +10350,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10493,6 +10612,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10756,6 +10878,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11021,6 +11146,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11258,6 +11386,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11517,6 +11648,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11790,6 +11924,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12039,6 +12176,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12288,6 +12428,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12531,6 +12674,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12764,6 +12910,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12995,6 +13144,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13247,6 +13399,9 @@
       </c>
       <c r="CE51" t="n">
         <v>0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="52">
@@ -13491,6 +13646,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13744,6 +13902,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14012,6 +14173,9 @@
       </c>
       <c r="CE54" t="n">
         <v>0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="55">
@@ -14262,6 +14426,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14509,6 +14676,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14762,6 +14932,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15023,6 +15196,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15279,6 +15455,9 @@
       </c>
       <c r="CE59" t="n">
         <v>0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="60">
@@ -15528,6 +15707,9 @@
       </c>
       <c r="CE60" t="n">
         <v>0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
@@ -15764,6 +15946,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16017,6 +16202,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16266,6 +16454,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16515,6 +16706,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16780,6 +16974,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17041,6 +17238,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17296,6 +17496,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17553,6 +17756,9 @@
         <v>0</v>
       </c>
       <c r="CE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17798,6 +18004,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18047,6 +18256,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18294,6 +18506,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18546,6 +18761,9 @@
       </c>
       <c r="CE72" t="n">
         <v>0</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="73">
@@ -18766,6 +18984,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18997,6 +19218,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19253,6 +19477,9 @@
       </c>
       <c r="CE75" t="n">
         <v>0</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -19497,6 +19724,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19740,6 +19970,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19987,6 +20220,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20244,6 +20480,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20487,6 +20726,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20720,6 +20962,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20951,6 +21196,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
